--- a/output/2023/ERA/table4.xlsx
+++ b/output/2023/ERA/table4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Fiske</t>
+          <t>Fiske_ERA</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -382,254 +382,328 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pelagiskt fiske med aktiva redskap</t>
+          <t>Pelagiskt fiske med aktiva redskap (flyttrål, vad); 25-29</t>
         </is>
       </c>
       <c r="B2">
-        <v>521.1054856927287</v>
+        <v>188.34646232756</v>
       </c>
       <c r="C2">
-        <v>529.7452221992597</v>
+        <v>207.559353287432</v>
       </c>
       <c r="D2">
-        <v>713.8804155473986</v>
+        <v>252.2900367481387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter kräfta med rist i Skagerrak och Kattegatt</t>
+          <t>Pelagiskt fiske med aktiva redskap (flyttrål, vad); 3a4</t>
         </is>
       </c>
       <c r="B3">
-        <v>75.98145672336332</v>
+        <v>161.0122886560095</v>
       </c>
       <c r="C3">
-        <v>75.85092995045275</v>
+        <v>223.5404681870755</v>
       </c>
       <c r="D3">
-        <v>86.96975718702765</v>
+        <v>351.1922613785472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Räkfiske med rist/tunnel i Skagerrak, Kattegatt och Nordsjön</t>
+          <t>Bottentrål havskräfta rist;  3a</t>
         </is>
       </c>
       <c r="B4">
-        <v>70.36821377974503</v>
+        <v>75.98145672336332</v>
       </c>
       <c r="C4">
-        <v>72.38597526028686</v>
+        <v>75.85092995045275</v>
       </c>
       <c r="D4">
-        <v>51.56663312524005</v>
+        <v>86.96975718702765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fiske med kräftburar</t>
+          <t>Räkfiske tunnel och rist;  3a4</t>
         </is>
       </c>
       <c r="B5">
-        <v>46.92257530854706</v>
+        <v>70.36821377974503</v>
       </c>
       <c r="C5">
-        <v>52.82365260891576</v>
+        <v>72.38597526028686</v>
       </c>
       <c r="D5">
-        <v>56.23312395151847</v>
+        <v>51.56663312524005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter fisk i Nordsjön</t>
+          <t>Pelagiskt fiske med aktiva redskap (flyttrål, vad); 21-24</t>
         </is>
       </c>
       <c r="B6">
-        <v>41.98054793071488</v>
+        <v>55.85866137075572</v>
       </c>
       <c r="C6">
-        <v>59.86771639392599</v>
+        <v>1.30044510449014</v>
       </c>
       <c r="D6">
-        <v>70.09649934792208</v>
+        <v>1.739445231085734</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter kräfta och fisk i Skagerrak</t>
+          <t>Pelagiskt fiske med aktiva redskap (bottentrål);  3a204</t>
         </is>
       </c>
       <c r="B7">
-        <v>39.19541777703893</v>
+        <v>53.83666061626538</v>
       </c>
       <c r="C7">
-        <v>40.56084734055202</v>
+        <v>33.04349167252793</v>
       </c>
       <c r="D7">
-        <v>35.95965873147647</v>
+        <v>43.78798410464668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fiske efter siklöja med bottentrål</t>
+          <t>Fiske med kräftburar;  3a</t>
         </is>
       </c>
       <c r="B8">
-        <v>38.67654555120639</v>
+        <v>46.92257530854706</v>
       </c>
       <c r="C8">
-        <v>102.2882336175271</v>
+        <v>52.82365260891576</v>
       </c>
       <c r="D8">
-        <v>81.56098138537968</v>
+        <v>56.23312395151847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fiske med passiva redskap i Skagerrak och Kattegatt</t>
+          <t>Bottentrål fisk;  4</t>
         </is>
       </c>
       <c r="B9">
-        <v>37.12283077619664</v>
+        <v>41.98054793071488</v>
       </c>
       <c r="C9">
-        <v>37.00454870403583</v>
+        <v>59.86771639392599</v>
       </c>
       <c r="D9">
-        <v>41.69104376697062</v>
+        <v>70.09649934792208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Räkfiske med rist i Skagerrak, Kattegatt och Nordsjön</t>
+          <t>Pelagiskt fiske med aktiva redskap (flyttrål, vad); 30-31</t>
         </is>
       </c>
       <c r="B10">
-        <v>32.70313371803563</v>
+        <v>41.47214052087791</v>
       </c>
       <c r="C10">
-        <v>44.20848371366633</v>
+        <v>41.74645549469043</v>
       </c>
       <c r="D10">
-        <v>42.96690530722561</v>
+        <v>40.82404918108995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter kräfta och fisk i Kattegatt</t>
+          <t>Fiske med finmaskig bottentrål efter pelagiska arter; 30-31</t>
         </is>
       </c>
       <c r="B11">
-        <v>31.03750405382976</v>
+        <v>39.73140221453836</v>
       </c>
       <c r="C11">
-        <v>33.32752776001923</v>
+        <v>104.0558385343885</v>
       </c>
       <c r="D11">
-        <v>36.71440191062683</v>
+        <v>82.02341941640184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter fisk i Skagerrak</t>
+          <t>Bottentrål havskräfta och fisk;  3a20</t>
         </is>
       </c>
       <c r="B12">
-        <v>16.54065088095093</v>
+        <v>39.19541777703893</v>
       </c>
       <c r="C12">
-        <v>25.43302610997536</v>
+        <v>40.56084734055202</v>
       </c>
       <c r="D12">
-        <v>39.21282668648433</v>
+        <v>35.95965873147647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fiske med passiva redskap i norra Östersjön</t>
+          <t>Fiske med passiva redskap;  3a</t>
         </is>
       </c>
       <c r="B13">
-        <v>11.22173588575574</v>
+        <v>37.12283077619664</v>
       </c>
       <c r="C13">
-        <v>12.55114024812617</v>
+        <v>37.00454870403583</v>
       </c>
       <c r="D13">
-        <v>11.86565971058437</v>
+        <v>41.69104376697062</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fiske med passiva redskap i centrala och södra Östersjön</t>
+          <t>Räkfiske rist;  3a4</t>
         </is>
       </c>
       <c r="B14">
-        <v>11.04332315143768</v>
+        <v>32.70313371803563</v>
       </c>
       <c r="C14">
-        <v>11.26808847777528</v>
+        <v>44.20848371366633</v>
       </c>
       <c r="D14">
-        <v>14.83721160826188</v>
+        <v>42.96690530722561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fiske i Öresund</t>
+          <t>Fiske med övriga passiva redskap; 22-32</t>
         </is>
       </c>
       <c r="B15">
-        <v>9.030450908479946</v>
+        <v>31.49359462253207</v>
       </c>
       <c r="C15">
-        <v>5.213047706831678</v>
+        <v>33.60760450857191</v>
       </c>
       <c r="D15">
-        <v>6.175791995894021</v>
+        <v>39.78050220252204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fiske efter lax</t>
+          <t>Bottentrål havskräfta och fisk;  3a21</t>
         </is>
       </c>
       <c r="B16">
-        <v>7.950872683558345</v>
+        <v>31.03750405382976</v>
       </c>
       <c r="C16">
-        <v>9.136734030162753</v>
+        <v>33.32752776001923</v>
       </c>
       <c r="D16">
-        <v>10.16664085692737</v>
+        <v>36.71440191062683</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bottentrålfiske efter torsk i Östersjön</t>
+          <t>Bottentrål fisk;  3a20</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.119963302010598</v>
+        <v>16.54065088095093</v>
       </c>
       <c r="C17">
+        <v>25.43302610997536</v>
+      </c>
+      <c r="D17">
+        <v>39.21282668648433</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fiske med finmaskig bottentrål efter pelagiska arter; 25-29</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>6.013944179616215</v>
+      </c>
+      <c r="C18">
+        <v>6.703481516414393</v>
+      </c>
+      <c r="D18">
+        <v>8.003434684438336</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Passiva redskap (torsk); 22-24</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>5.417191397675514</v>
+      </c>
+      <c r="C19">
+        <v>1.739653121075867</v>
+      </c>
+      <c r="D19">
+        <v>1.015376097349402</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Passiva redskap (torsk); 25-32</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>2.335596609024181</v>
+      </c>
+      <c r="C20">
+        <v>2.821752833248074</v>
+      </c>
+      <c r="D20">
+        <v>2.249425871796257</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fiske med stormaskig bottentrål (torsk); 25-32</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>0.1161440640659103</v>
+      </c>
+      <c r="C21">
         <v>0.004480066067323238</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fiske med stormaskig bottentrål (torsk); 22-24</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>0.003819237944687708</v>
       </c>
     </row>
   </sheetData>
